--- a/Bachelorarbeit_Lucy Klimmek_Bordewick-Dell_Englert.xlsx
+++ b/Bachelorarbeit_Lucy Klimmek_Bordewick-Dell_Englert.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucy3\Desktop\Bachelorarbeit a\hmmm\von Robin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ecoha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6E535A17-D9E2-428C-BBC7-DE8396396090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E61279-68C3-47CE-8B5E-61366A3AD27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="750" windowWidth="29040" windowHeight="15720" xr2:uid="{A0BA3619-9054-4A0C-A6EB-8D7987D9F200}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A0BA3619-9054-4A0C-A6EB-8D7987D9F200}"/>
   </bookViews>
   <sheets>
     <sheet name="Big_Einheit_in_mgdL" sheetId="1" r:id="rId1"/>
@@ -4308,58 +4308,58 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4744,29 +4744,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC81232-A809-4263-A9A6-6F762D577CB7}">
-  <dimension ref="A1:Z257"/>
+  <dimension ref="A1:Z254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="L245" sqref="L245"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.54296875" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="24.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="37.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="33.54296875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="15.26953125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.453125" style="2" customWidth="1"/>
-    <col min="8" max="9" width="12.90625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="68.7265625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="54.36328125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.54296875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="10.54296875" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="10.54296875" style="2"/>
+    <col min="1" max="1" width="24.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="15.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="12.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="68.7109375" style="9" customWidth="1"/>
+    <col min="11" max="11" width="54.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="10.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="195">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="13">
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="12.5">
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" ht="25.5">
+    <row r="4" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" ht="12.5">
+    <row r="5" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" ht="13">
+    <row r="6" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="2" customFormat="1" ht="12.5">
+    <row r="7" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" ht="41.5">
+    <row r="8" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="2" customFormat="1" ht="38.5">
+    <row r="9" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="2" customFormat="1" ht="25">
+    <row r="10" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="2" customFormat="1" ht="12.5">
+    <row r="11" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" ht="13">
+    <row r="12" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>61</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="2" customFormat="1" ht="12.5">
+    <row r="13" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>61</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="2" customFormat="1" ht="27">
+    <row r="14" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>69</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="2" customFormat="1" ht="13">
+    <row r="15" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>69</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="2" customFormat="1" ht="12.5">
+    <row r="16" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>69</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="2" customFormat="1" ht="13">
+    <row r="17" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>82</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="2" customFormat="1" ht="37.5">
+    <row r="18" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>82</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="2" customFormat="1" ht="12.5">
+    <row r="19" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>82</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="2" customFormat="1" ht="37.5">
+    <row r="20" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="2" customFormat="1" ht="37.5">
+    <row r="21" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="2" customFormat="1" ht="37.5">
+    <row r="22" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="2" customFormat="1" ht="37.5">
+    <row r="23" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="2" customFormat="1" ht="25">
+    <row r="24" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="2" customFormat="1" ht="25">
+    <row r="25" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="2" customFormat="1" ht="37.5">
+    <row r="26" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="2" customFormat="1" ht="37.5">
+    <row r="27" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="2" customFormat="1" ht="75">
+    <row r="28" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>69</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="2" customFormat="1" ht="75">
+    <row r="29" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>69</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="2" customFormat="1" ht="75">
+    <row r="30" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>69</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="2" customFormat="1" ht="13">
+    <row r="31" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="2" customFormat="1" ht="12.5">
+    <row r="32" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="2" customFormat="1" ht="13">
+    <row r="33" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="2" customFormat="1" ht="12.5">
+    <row r="34" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="2" customFormat="1" ht="25">
+    <row r="35" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>51</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="2" customFormat="1" ht="12.5">
+    <row r="36" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>51</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="2" customFormat="1" ht="13">
+    <row r="37" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>24</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="2" customFormat="1" ht="12.5">
+    <row r="38" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="2" customFormat="1" ht="13">
+    <row r="39" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="2" customFormat="1" ht="12.5">
+    <row r="40" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>35</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="2" customFormat="1" ht="27">
+    <row r="41" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="2" customFormat="1" ht="12.5">
+    <row r="42" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>69</v>
       </c>
@@ -6236,7 +6236,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="2" customFormat="1" ht="12.5">
+    <row r="43" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>69</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="2" customFormat="1" ht="13">
+    <row r="44" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>61</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="2" customFormat="1" ht="12.5">
+    <row r="45" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="2" customFormat="1" ht="13">
+    <row r="46" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>24</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="2" customFormat="1" ht="12.5">
+    <row r="47" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>24</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="2" customFormat="1" ht="13">
+    <row r="48" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>35</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="2" customFormat="1" ht="12.5">
+    <row r="49" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>35</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="2" customFormat="1" ht="12.5">
+    <row r="50" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>69</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="2" customFormat="1" ht="12.5">
+    <row r="51" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>69</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="2" customFormat="1" ht="12.5">
+    <row r="52" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>69</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="2" customFormat="1" ht="12.5">
+    <row r="53" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="2" customFormat="1" ht="12.5">
+    <row r="54" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>61</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="2" customFormat="1" ht="14.5">
+    <row r="55" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>24</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="2" customFormat="1" ht="14.5">
+    <row r="56" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>24</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="2" customFormat="1" ht="13">
+    <row r="57" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>35</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="2" customFormat="1" ht="12.5">
+    <row r="58" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>35</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="2" customFormat="1" ht="13">
+    <row r="59" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>69</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="2" customFormat="1" ht="12.5">
+    <row r="60" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>69</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="2" customFormat="1" ht="12.5">
+    <row r="61" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>69</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="2" customFormat="1" ht="50">
+    <row r="62" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>11</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="2" customFormat="1" ht="50">
+    <row r="63" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="2" customFormat="1" ht="50">
+    <row r="64" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>51</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="50">
+    <row r="65" spans="1:13" ht="15" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>51</v>
       </c>
@@ -7042,7 +7042,7 @@
       </c>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:13" ht="50">
+    <row r="66" spans="1:13" ht="15" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>69</v>
       </c>
@@ -7078,7 +7078,7 @@
       </c>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:13" ht="50">
+    <row r="67" spans="1:13" ht="15" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>69</v>
       </c>
@@ -7114,7 +7114,7 @@
       </c>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:13" ht="50">
+    <row r="68" spans="1:13" ht="15" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>69</v>
       </c>
@@ -7150,7 +7150,7 @@
       </c>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:13" customFormat="1" ht="12.5">
+    <row r="69" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>11</v>
       </c>
@@ -7187,7 +7187,7 @@
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
     </row>
-    <row r="70" spans="1:13" customFormat="1" ht="87.5">
+    <row r="70" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>11</v>
       </c>
@@ -7224,7 +7224,7 @@
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
     </row>
-    <row r="71" spans="1:13" customFormat="1" ht="87.5">
+    <row r="71" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>11</v>
       </c>
@@ -7261,7 +7261,7 @@
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
     </row>
-    <row r="72" spans="1:13" customFormat="1" ht="87.5">
+    <row r="72" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>24</v>
       </c>
@@ -7298,7 +7298,7 @@
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
     </row>
-    <row r="73" spans="1:13" customFormat="1" ht="87.5">
+    <row r="73" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>24</v>
       </c>
@@ -7335,7 +7335,7 @@
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
     </row>
-    <row r="74" spans="1:13" customFormat="1" ht="87.5">
+    <row r="74" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>35</v>
       </c>
@@ -7372,7 +7372,7 @@
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
     </row>
-    <row r="75" spans="1:13" customFormat="1" ht="87.5">
+    <row r="75" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>35</v>
       </c>
@@ -7409,7 +7409,7 @@
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
     </row>
-    <row r="76" spans="1:13" customFormat="1" ht="75">
+    <row r="76" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A76" s="1" t="s">
         <v>41</v>
       </c>
@@ -7446,7 +7446,7 @@
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
     </row>
-    <row r="77" spans="1:13" customFormat="1" ht="75">
+    <row r="77" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>41</v>
       </c>
@@ -7483,7 +7483,7 @@
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
     </row>
-    <row r="78" spans="1:13" customFormat="1" ht="75">
+    <row r="78" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>51</v>
       </c>
@@ -7520,7 +7520,7 @@
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
     </row>
-    <row r="79" spans="1:13" customFormat="1" ht="75">
+    <row r="79" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>51</v>
       </c>
@@ -7557,7 +7557,7 @@
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
     </row>
-    <row r="80" spans="1:13" customFormat="1" ht="75">
+    <row r="80" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>69</v>
       </c>
@@ -7594,7 +7594,7 @@
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
     </row>
-    <row r="81" spans="1:13" customFormat="1" ht="75">
+    <row r="81" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>69</v>
       </c>
@@ -7631,7 +7631,7 @@
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
     </row>
-    <row r="82" spans="1:13" customFormat="1" ht="75">
+    <row r="82" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>69</v>
       </c>
@@ -7668,7 +7668,7 @@
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
     </row>
-    <row r="83" spans="1:13" customFormat="1" ht="100">
+    <row r="83" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
@@ -7705,7 +7705,7 @@
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
     </row>
-    <row r="84" spans="1:13" customFormat="1" ht="87.5">
+    <row r="84" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
@@ -7742,7 +7742,7 @@
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
     </row>
-    <row r="85" spans="1:13" customFormat="1" ht="100">
+    <row r="85" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A85" s="1" t="s">
         <v>82</v>
       </c>
@@ -7779,7 +7779,7 @@
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
     </row>
-    <row r="86" spans="1:13" customFormat="1" ht="13">
+    <row r="86" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="1" t="s">
         <v>11</v>
       </c>
@@ -7816,7 +7816,7 @@
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
     </row>
-    <row r="87" spans="1:13" customFormat="1" ht="12.5">
+    <row r="87" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A87" s="1" t="s">
         <v>11</v>
       </c>
@@ -7853,7 +7853,7 @@
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
     </row>
-    <row r="88" spans="1:13" customFormat="1" ht="14.5">
+    <row r="88" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A88" s="1" t="s">
         <v>24</v>
       </c>
@@ -7890,7 +7890,7 @@
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
     </row>
-    <row r="89" spans="1:13" customFormat="1" ht="14.5">
+    <row r="89" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>24</v>
       </c>
@@ -7927,7 +7927,7 @@
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
     </row>
-    <row r="90" spans="1:13" customFormat="1" ht="13">
+    <row r="90" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A90" s="1" t="s">
         <v>35</v>
       </c>
@@ -7964,7 +7964,7 @@
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
     </row>
-    <row r="91" spans="1:13" customFormat="1" ht="12.5">
+    <row r="91" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>35</v>
       </c>
@@ -8001,7 +8001,7 @@
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
     </row>
-    <row r="92" spans="1:13" customFormat="1" ht="13">
+    <row r="92" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A92" s="1" t="s">
         <v>41</v>
       </c>
@@ -8038,7 +8038,7 @@
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
     </row>
-    <row r="93" spans="1:13" customFormat="1" ht="12.5">
+    <row r="93" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>41</v>
       </c>
@@ -8075,7 +8075,7 @@
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
     </row>
-    <row r="94" spans="1:13" customFormat="1" ht="25">
+    <row r="94" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>51</v>
       </c>
@@ -8112,7 +8112,7 @@
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
     </row>
-    <row r="95" spans="1:13" customFormat="1" ht="12.5">
+    <row r="95" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>51</v>
       </c>
@@ -8149,7 +8149,7 @@
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
     </row>
-    <row r="96" spans="1:13" customFormat="1" ht="12.5">
+    <row r="96" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A96" s="1" t="s">
         <v>69</v>
       </c>
@@ -8186,7 +8186,7 @@
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
     </row>
-    <row r="97" spans="1:13" customFormat="1" ht="13">
+    <row r="97" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A97" s="1" t="s">
         <v>69</v>
       </c>
@@ -8223,7 +8223,7 @@
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
     </row>
-    <row r="98" spans="1:13" customFormat="1" ht="12.5">
+    <row r="98" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A98" s="1" t="s">
         <v>69</v>
       </c>
@@ -8260,7 +8260,7 @@
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
     </row>
-    <row r="99" spans="1:13" customFormat="1">
+    <row r="99" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A99" s="1" t="s">
         <v>82</v>
       </c>
@@ -8297,7 +8297,7 @@
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
     </row>
-    <row r="100" spans="1:13" customFormat="1" ht="13">
+    <row r="100" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A100" s="1" t="s">
         <v>82</v>
       </c>
@@ -8334,7 +8334,7 @@
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
     </row>
-    <row r="101" spans="1:13" customFormat="1" ht="12.5">
+    <row r="101" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A101" s="1" t="s">
         <v>82</v>
       </c>
@@ -8371,7 +8371,7 @@
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
     </row>
-    <row r="102" spans="1:13" customFormat="1" ht="125">
+    <row r="102" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="1" t="s">
         <v>11</v>
       </c>
@@ -8408,7 +8408,7 @@
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
     </row>
-    <row r="103" spans="1:13" customFormat="1" ht="137.5">
+    <row r="103" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="1" t="s">
         <v>11</v>
       </c>
@@ -8445,7 +8445,7 @@
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
     </row>
-    <row r="104" spans="1:13" customFormat="1" ht="125">
+    <row r="104" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A104" s="1" t="s">
         <v>24</v>
       </c>
@@ -8482,7 +8482,7 @@
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
     </row>
-    <row r="105" spans="1:13" customFormat="1" ht="137.5">
+    <row r="105" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A105" s="1" t="s">
         <v>24</v>
       </c>
@@ -8519,7 +8519,7 @@
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
     </row>
-    <row r="106" spans="1:13" customFormat="1" ht="137.5">
+    <row r="106" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A106" s="1" t="s">
         <v>35</v>
       </c>
@@ -8556,7 +8556,7 @@
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
     </row>
-    <row r="107" spans="1:13" customFormat="1" ht="137.5">
+    <row r="107" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A107" s="1" t="s">
         <v>35</v>
       </c>
@@ -8593,7 +8593,7 @@
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
     </row>
-    <row r="108" spans="1:13" customFormat="1" ht="112.5">
+    <row r="108" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A108" s="1" t="s">
         <v>41</v>
       </c>
@@ -8630,7 +8630,7 @@
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
     </row>
-    <row r="109" spans="1:13" customFormat="1" ht="112.5">
+    <row r="109" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A109" s="1" t="s">
         <v>41</v>
       </c>
@@ -8667,7 +8667,7 @@
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
     </row>
-    <row r="110" spans="1:13" customFormat="1" ht="137.5">
+    <row r="110" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A110" s="1" t="s">
         <v>51</v>
       </c>
@@ -8704,7 +8704,7 @@
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
     </row>
-    <row r="111" spans="1:13" customFormat="1" ht="137.5">
+    <row r="111" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A111" s="1" t="s">
         <v>51</v>
       </c>
@@ -8741,7 +8741,7 @@
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
     </row>
-    <row r="112" spans="1:13" customFormat="1" ht="125">
+    <row r="112" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A112" s="1" t="s">
         <v>69</v>
       </c>
@@ -8778,7 +8778,7 @@
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
     </row>
-    <row r="113" spans="1:13" customFormat="1" ht="137.5">
+    <row r="113" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A113" s="1" t="s">
         <v>69</v>
       </c>
@@ -8815,7 +8815,7 @@
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
     </row>
-    <row r="114" spans="1:13" customFormat="1" ht="125">
+    <row r="114" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A114" s="1" t="s">
         <v>69</v>
       </c>
@@ -8852,7 +8852,7 @@
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
     </row>
-    <row r="115" spans="1:13" customFormat="1" ht="137.5">
+    <row r="115" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A115" s="1" t="s">
         <v>82</v>
       </c>
@@ -8889,7 +8889,7 @@
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
     </row>
-    <row r="116" spans="1:13" customFormat="1" ht="137.5">
+    <row r="116" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A116" s="1" t="s">
         <v>82</v>
       </c>
@@ -8926,7 +8926,7 @@
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
     </row>
-    <row r="117" spans="1:13" customFormat="1" ht="137.5">
+    <row r="117" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A117" s="1" t="s">
         <v>82</v>
       </c>
@@ -8963,7 +8963,7 @@
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
     </row>
-    <row r="118" spans="1:13" customFormat="1" ht="13">
+    <row r="118" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A118" s="1" t="s">
         <v>11</v>
       </c>
@@ -9000,7 +9000,7 @@
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
     </row>
-    <row r="119" spans="1:13" customFormat="1" ht="12.5">
+    <row r="119" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A119" s="1" t="s">
         <v>11</v>
       </c>
@@ -9037,7 +9037,7 @@
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
     </row>
-    <row r="120" spans="1:13" customFormat="1" ht="19.5" customHeight="1">
+    <row r="120" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A120" s="1" t="s">
         <v>24</v>
       </c>
@@ -9074,7 +9074,7 @@
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
     </row>
-    <row r="121" spans="1:13" customFormat="1" ht="14.5">
+    <row r="121" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A121" s="1" t="s">
         <v>24</v>
       </c>
@@ -9111,7 +9111,7 @@
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
     </row>
-    <row r="122" spans="1:13" customFormat="1" ht="13">
+    <row r="122" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A122" s="1" t="s">
         <v>35</v>
       </c>
@@ -9148,7 +9148,7 @@
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
     </row>
-    <row r="123" spans="1:13" customFormat="1" ht="12.5">
+    <row r="123" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A123" s="1" t="s">
         <v>35</v>
       </c>
@@ -9185,7 +9185,7 @@
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
     </row>
-    <row r="124" spans="1:13" customFormat="1" ht="13">
+    <row r="124" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A124" s="1" t="s">
         <v>41</v>
       </c>
@@ -9222,7 +9222,7 @@
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
     </row>
-    <row r="125" spans="1:13" customFormat="1" ht="12.5">
+    <row r="125" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A125" s="1" t="s">
         <v>41</v>
       </c>
@@ -9259,7 +9259,7 @@
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
     </row>
-    <row r="126" spans="1:13" customFormat="1" ht="25">
+    <row r="126" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A126" s="1" t="s">
         <v>51</v>
       </c>
@@ -9296,7 +9296,7 @@
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
     </row>
-    <row r="127" spans="1:13" customFormat="1" ht="12.5">
+    <row r="127" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A127" s="1" t="s">
         <v>51</v>
       </c>
@@ -9333,7 +9333,7 @@
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
     </row>
-    <row r="128" spans="1:13" customFormat="1" ht="12.5">
+    <row r="128" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A128" s="1" t="s">
         <v>69</v>
       </c>
@@ -9370,7 +9370,7 @@
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
     </row>
-    <row r="129" spans="1:13" customFormat="1" ht="13">
+    <row r="129" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A129" s="1" t="s">
         <v>69</v>
       </c>
@@ -9407,7 +9407,7 @@
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
     </row>
-    <row r="130" spans="1:13" customFormat="1" ht="12.5">
+    <row r="130" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A130" s="1" t="s">
         <v>69</v>
       </c>
@@ -9444,7 +9444,7 @@
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
     </row>
-    <row r="131" spans="1:13" customFormat="1">
+    <row r="131" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A131" s="1" t="s">
         <v>82</v>
       </c>
@@ -9481,7 +9481,7 @@
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
     </row>
-    <row r="132" spans="1:13" customFormat="1" ht="13">
+    <row r="132" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A132" s="1" t="s">
         <v>82</v>
       </c>
@@ -9518,7 +9518,7 @@
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
     </row>
-    <row r="133" spans="1:13" customFormat="1" ht="12.5">
+    <row r="133" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A133" s="1" t="s">
         <v>82</v>
       </c>
@@ -9555,7 +9555,7 @@
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
     </row>
-    <row r="134" spans="1:13" customFormat="1" ht="50">
+    <row r="134" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A134" s="1" t="s">
         <v>11</v>
       </c>
@@ -9592,7 +9592,7 @@
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
     </row>
-    <row r="135" spans="1:13" customFormat="1" ht="50">
+    <row r="135" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A135" s="1" t="s">
         <v>11</v>
       </c>
@@ -9629,7 +9629,7 @@
       <c r="L135" s="2"/>
       <c r="M135" s="2"/>
     </row>
-    <row r="136" spans="1:13" customFormat="1" ht="50">
+    <row r="136" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A136" s="1" t="s">
         <v>51</v>
       </c>
@@ -9666,7 +9666,7 @@
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
     </row>
-    <row r="137" spans="1:13" customFormat="1" ht="50">
+    <row r="137" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A137" s="1" t="s">
         <v>51</v>
       </c>
@@ -9703,7 +9703,7 @@
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
     </row>
-    <row r="138" spans="1:13" customFormat="1" ht="50">
+    <row r="138" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A138" s="1" t="s">
         <v>69</v>
       </c>
@@ -9740,7 +9740,7 @@
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
     </row>
-    <row r="139" spans="1:13" customFormat="1" ht="50">
+    <row r="139" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A139" s="1" t="s">
         <v>69</v>
       </c>
@@ -9777,7 +9777,7 @@
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
     </row>
-    <row r="140" spans="1:13" customFormat="1" ht="50">
+    <row r="140" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A140" s="1" t="s">
         <v>69</v>
       </c>
@@ -9814,7 +9814,7 @@
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
     </row>
-    <row r="141" spans="1:13" customFormat="1" ht="75">
+    <row r="141" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A141" s="1" t="s">
         <v>11</v>
       </c>
@@ -9851,7 +9851,7 @@
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
     </row>
-    <row r="142" spans="1:13" customFormat="1" ht="75">
+    <row r="142" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A142" s="1" t="s">
         <v>11</v>
       </c>
@@ -9888,7 +9888,7 @@
       <c r="L142" s="2"/>
       <c r="M142" s="2"/>
     </row>
-    <row r="143" spans="1:13" customFormat="1" ht="150">
+    <row r="143" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A143" s="1" t="s">
         <v>51</v>
       </c>
@@ -9925,7 +9925,7 @@
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
     </row>
-    <row r="144" spans="1:13" customFormat="1" ht="150">
+    <row r="144" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A144" s="1" t="s">
         <v>51</v>
       </c>
@@ -9962,7 +9962,7 @@
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
     </row>
-    <row r="145" spans="1:13" customFormat="1" ht="125">
+    <row r="145" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A145" s="1" t="s">
         <v>69</v>
       </c>
@@ -9999,7 +9999,7 @@
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
     </row>
-    <row r="146" spans="1:13" customFormat="1" ht="125">
+    <row r="146" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A146" s="1" t="s">
         <v>69</v>
       </c>
@@ -10036,7 +10036,7 @@
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
     </row>
-    <row r="147" spans="1:13" customFormat="1" ht="100">
+    <row r="147" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A147" s="1" t="s">
         <v>69</v>
       </c>
@@ -10073,7 +10073,7 @@
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
     </row>
-    <row r="148" spans="1:13" customFormat="1" ht="100">
+    <row r="148" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A148" s="1" t="s">
         <v>11</v>
       </c>
@@ -10110,7 +10110,7 @@
       <c r="L148" s="2"/>
       <c r="M148" s="2"/>
     </row>
-    <row r="149" spans="1:13" customFormat="1" ht="100">
+    <row r="149" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A149" s="1" t="s">
         <v>11</v>
       </c>
@@ -10147,7 +10147,7 @@
       <c r="L149" s="2"/>
       <c r="M149" s="2"/>
     </row>
-    <row r="150" spans="1:13" customFormat="1" ht="137.5">
+    <row r="150" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A150" s="1" t="s">
         <v>24</v>
       </c>
@@ -10182,7 +10182,7 @@
       <c r="L150" s="2"/>
       <c r="M150" s="2"/>
     </row>
-    <row r="151" spans="1:13" customFormat="1" ht="137.5">
+    <row r="151" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A151" s="1" t="s">
         <v>24</v>
       </c>
@@ -10219,7 +10219,7 @@
       <c r="L151" s="2"/>
       <c r="M151" s="2"/>
     </row>
-    <row r="152" spans="1:13" customFormat="1" ht="137.5">
+    <row r="152" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A152" s="1" t="s">
         <v>35</v>
       </c>
@@ -10256,7 +10256,7 @@
       <c r="L152" s="2"/>
       <c r="M152" s="2"/>
     </row>
-    <row r="153" spans="1:13" customFormat="1" ht="137.5">
+    <row r="153" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A153" s="1" t="s">
         <v>35</v>
       </c>
@@ -10293,7 +10293,7 @@
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
     </row>
-    <row r="154" spans="1:13" customFormat="1" ht="100">
+    <row r="154" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A154" s="1" t="s">
         <v>41</v>
       </c>
@@ -10330,7 +10330,7 @@
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
     </row>
-    <row r="155" spans="1:13" customFormat="1" ht="100">
+    <row r="155" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A155" s="1" t="s">
         <v>41</v>
       </c>
@@ -10367,7 +10367,7 @@
       <c r="L155" s="2"/>
       <c r="M155" s="2"/>
     </row>
-    <row r="156" spans="1:13" customFormat="1" ht="137.5">
+    <row r="156" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A156" s="1" t="s">
         <v>51</v>
       </c>
@@ -10404,7 +10404,7 @@
       <c r="L156" s="2"/>
       <c r="M156" s="2"/>
     </row>
-    <row r="157" spans="1:13" customFormat="1" ht="137.5">
+    <row r="157" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A157" s="1" t="s">
         <v>51</v>
       </c>
@@ -10441,7 +10441,7 @@
       <c r="L157" s="2"/>
       <c r="M157" s="2"/>
     </row>
-    <row r="158" spans="1:13" customFormat="1" ht="137.5">
+    <row r="158" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A158" s="1" t="s">
         <v>82</v>
       </c>
@@ -10478,7 +10478,7 @@
       <c r="L158" s="2"/>
       <c r="M158" s="2"/>
     </row>
-    <row r="159" spans="1:13" customFormat="1" ht="137.5">
+    <row r="159" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A159" s="1" t="s">
         <v>82</v>
       </c>
@@ -10515,7 +10515,7 @@
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
     </row>
-    <row r="160" spans="1:13" customFormat="1" ht="137.5">
+    <row r="160" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A160" s="1" t="s">
         <v>82</v>
       </c>
@@ -10552,7 +10552,7 @@
       <c r="L160" s="2"/>
       <c r="M160" s="2"/>
     </row>
-    <row r="161" spans="1:13" customFormat="1" ht="75">
+    <row r="161" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A161" s="1" t="s">
         <v>24</v>
       </c>
@@ -10589,7 +10589,7 @@
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
     </row>
-    <row r="162" spans="1:13" customFormat="1" ht="75">
+    <row r="162" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A162" s="1" t="s">
         <v>24</v>
       </c>
@@ -10626,7 +10626,7 @@
       <c r="L162" s="2"/>
       <c r="M162" s="2"/>
     </row>
-    <row r="163" spans="1:13" customFormat="1" ht="75">
+    <row r="163" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A163" s="1" t="s">
         <v>35</v>
       </c>
@@ -10663,7 +10663,7 @@
       <c r="L163" s="2"/>
       <c r="M163" s="2"/>
     </row>
-    <row r="164" spans="1:13" customFormat="1" ht="75">
+    <row r="164" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A164" s="1" t="s">
         <v>35</v>
       </c>
@@ -10700,7 +10700,7 @@
       <c r="L164" s="2"/>
       <c r="M164" s="2"/>
     </row>
-    <row r="165" spans="1:13" customFormat="1" ht="87.5">
+    <row r="165" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A165" s="1" t="s">
         <v>41</v>
       </c>
@@ -10737,7 +10737,7 @@
       <c r="L165" s="2"/>
       <c r="M165" s="2"/>
     </row>
-    <row r="166" spans="1:13" customFormat="1" ht="87.5">
+    <row r="166" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A166" s="1" t="s">
         <v>41</v>
       </c>
@@ -10774,7 +10774,7 @@
       <c r="L166" s="2"/>
       <c r="M166" s="2"/>
     </row>
-    <row r="167" spans="1:13" customFormat="1" ht="87.5">
+    <row r="167" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A167" s="1" t="s">
         <v>51</v>
       </c>
@@ -10809,7 +10809,7 @@
       <c r="L167" s="2"/>
       <c r="M167" s="2"/>
     </row>
-    <row r="168" spans="1:13" customFormat="1" ht="87.5">
+    <row r="168" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A168" s="1" t="s">
         <v>51</v>
       </c>
@@ -10846,7 +10846,7 @@
       <c r="L168" s="2"/>
       <c r="M168" s="2"/>
     </row>
-    <row r="169" spans="1:13" customFormat="1" ht="87.5">
+    <row r="169" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A169" s="1" t="s">
         <v>61</v>
       </c>
@@ -10883,7 +10883,7 @@
       <c r="L169" s="2"/>
       <c r="M169" s="2"/>
     </row>
-    <row r="170" spans="1:13" customFormat="1" ht="87.5">
+    <row r="170" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A170" s="1" t="s">
         <v>61</v>
       </c>
@@ -10920,7 +10920,7 @@
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
     </row>
-    <row r="171" spans="1:13" customFormat="1" ht="87.5">
+    <row r="171" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A171" s="1" t="s">
         <v>69</v>
       </c>
@@ -10957,7 +10957,7 @@
       <c r="L171" s="2"/>
       <c r="M171" s="2"/>
     </row>
-    <row r="172" spans="1:13" customFormat="1" ht="75">
+    <row r="172" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A172" s="1" t="s">
         <v>69</v>
       </c>
@@ -10994,7 +10994,7 @@
       <c r="L172" s="2"/>
       <c r="M172" s="2"/>
     </row>
-    <row r="173" spans="1:13" customFormat="1" ht="75">
+    <row r="173" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A173" s="1" t="s">
         <v>69</v>
       </c>
@@ -11031,7 +11031,7 @@
       <c r="L173" s="2"/>
       <c r="M173" s="2"/>
     </row>
-    <row r="174" spans="1:13" customFormat="1" ht="75">
+    <row r="174" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A174" s="1" t="s">
         <v>82</v>
       </c>
@@ -11068,7 +11068,7 @@
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
     </row>
-    <row r="175" spans="1:13" customFormat="1" ht="75">
+    <row r="175" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A175" s="1" t="s">
         <v>82</v>
       </c>
@@ -11105,7 +11105,7 @@
       <c r="L175" s="2"/>
       <c r="M175" s="2"/>
     </row>
-    <row r="176" spans="1:13" customFormat="1" ht="75">
+    <row r="176" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A176" s="1" t="s">
         <v>82</v>
       </c>
@@ -11142,7 +11142,7 @@
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
     </row>
-    <row r="177" spans="1:13" customFormat="1" ht="50">
+    <row r="177" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A177" s="1" t="s">
         <v>11</v>
       </c>
@@ -11179,7 +11179,7 @@
       <c r="L177" s="2"/>
       <c r="M177" s="2"/>
     </row>
-    <row r="178" spans="1:13" customFormat="1" ht="50">
+    <row r="178" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A178" s="1" t="s">
         <v>11</v>
       </c>
@@ -11216,7 +11216,7 @@
       <c r="L178" s="2"/>
       <c r="M178" s="2"/>
     </row>
-    <row r="179" spans="1:13" customFormat="1" ht="50">
+    <row r="179" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A179" s="1" t="s">
         <v>41</v>
       </c>
@@ -11253,7 +11253,7 @@
       <c r="L179" s="2"/>
       <c r="M179" s="2"/>
     </row>
-    <row r="180" spans="1:13" customFormat="1" ht="50">
+    <row r="180" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A180" s="1" t="s">
         <v>41</v>
       </c>
@@ -11290,7 +11290,7 @@
       <c r="L180" s="2"/>
       <c r="M180" s="2"/>
     </row>
-    <row r="181" spans="1:13" customFormat="1" ht="13">
+    <row r="181" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A181" s="1" t="s">
         <v>11</v>
       </c>
@@ -11327,7 +11327,7 @@
       <c r="L181" s="2"/>
       <c r="M181" s="2"/>
     </row>
-    <row r="182" spans="1:13" customFormat="1" ht="12.5">
+    <row r="182" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A182" s="1" t="s">
         <v>11</v>
       </c>
@@ -11364,7 +11364,7 @@
       <c r="L182" s="2"/>
       <c r="M182" s="2"/>
     </row>
-    <row r="183" spans="1:13" customFormat="1" ht="13">
+    <row r="183" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A183" s="1" t="s">
         <v>41</v>
       </c>
@@ -11401,7 +11401,7 @@
       <c r="L183" s="2"/>
       <c r="M183" s="2"/>
     </row>
-    <row r="184" spans="1:13" customFormat="1" ht="12.5">
+    <row r="184" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A184" s="1" t="s">
         <v>41</v>
       </c>
@@ -11438,7 +11438,7 @@
       <c r="L184" s="2"/>
       <c r="M184" s="2"/>
     </row>
-    <row r="185" spans="1:13" customFormat="1" ht="13">
+    <row r="185" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A185" s="1" t="s">
         <v>61</v>
       </c>
@@ -11475,7 +11475,7 @@
       <c r="L185" s="2"/>
       <c r="M185" s="2"/>
     </row>
-    <row r="186" spans="1:13" customFormat="1" ht="12.5">
+    <row r="186" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A186" s="1" t="s">
         <v>61</v>
       </c>
@@ -11512,7 +11512,7 @@
       <c r="L186" s="2"/>
       <c r="M186" s="2"/>
     </row>
-    <row r="187" spans="1:13" customFormat="1" ht="38.5">
+    <row r="187" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A187" s="1" t="s">
         <v>24</v>
       </c>
@@ -11549,7 +11549,7 @@
       <c r="L187" s="2"/>
       <c r="M187" s="2"/>
     </row>
-    <row r="188" spans="1:13" customFormat="1" ht="12.5">
+    <row r="188" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A188" s="1" t="s">
         <v>24</v>
       </c>
@@ -11586,7 +11586,7 @@
       <c r="L188" s="2"/>
       <c r="M188" s="2"/>
     </row>
-    <row r="189" spans="1:13" customFormat="1" ht="25.5">
+    <row r="189" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A189" s="1" t="s">
         <v>35</v>
       </c>
@@ -11623,7 +11623,7 @@
       <c r="L189" s="2"/>
       <c r="M189" s="2"/>
     </row>
-    <row r="190" spans="1:13" customFormat="1" ht="12.5">
+    <row r="190" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A190" s="1" t="s">
         <v>35</v>
       </c>
@@ -11660,7 +11660,7 @@
       <c r="L190" s="2"/>
       <c r="M190" s="2"/>
     </row>
-    <row r="191" spans="1:13" customFormat="1" ht="13">
+    <row r="191" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A191" s="7" t="s">
         <v>41</v>
       </c>
@@ -11697,7 +11697,7 @@
       <c r="L191" s="2"/>
       <c r="M191" s="2"/>
     </row>
-    <row r="192" spans="1:13" customFormat="1" ht="12.5">
+    <row r="192" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A192" s="7" t="s">
         <v>41</v>
       </c>
@@ -11734,7 +11734,7 @@
       <c r="L192" s="2"/>
       <c r="M192" s="2"/>
     </row>
-    <row r="193" spans="1:13" customFormat="1" ht="13">
+    <row r="193" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A193" s="1" t="s">
         <v>24</v>
       </c>
@@ -11771,7 +11771,7 @@
       <c r="L193" s="2"/>
       <c r="M193" s="2"/>
     </row>
-    <row r="194" spans="1:13" customFormat="1" ht="12.5">
+    <row r="194" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A194" s="1" t="s">
         <v>24</v>
       </c>
@@ -11808,7 +11808,7 @@
       <c r="L194" s="2"/>
       <c r="M194" s="2"/>
     </row>
-    <row r="195" spans="1:13" customFormat="1" ht="42">
+    <row r="195" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A195" s="1" t="s">
         <v>35</v>
       </c>
@@ -11845,7 +11845,7 @@
       <c r="L195" s="2"/>
       <c r="M195" s="2"/>
     </row>
-    <row r="196" spans="1:13" customFormat="1" ht="12.5">
+    <row r="196" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A196" s="1" t="s">
         <v>35</v>
       </c>
@@ -11882,7 +11882,7 @@
       <c r="L196" s="2"/>
       <c r="M196" s="2"/>
     </row>
-    <row r="197" spans="1:13" customFormat="1" ht="13">
+    <row r="197" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A197" s="1" t="s">
         <v>24</v>
       </c>
@@ -11919,7 +11919,7 @@
       <c r="L197" s="2"/>
       <c r="M197" s="2"/>
     </row>
-    <row r="198" spans="1:13" customFormat="1">
+    <row r="198" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A198" s="1" t="s">
         <v>41</v>
       </c>
@@ -11956,7 +11956,7 @@
       <c r="L198" s="2"/>
       <c r="M198" s="2"/>
     </row>
-    <row r="199" spans="1:13" customFormat="1" ht="12.5">
+    <row r="199" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A199" s="1" t="s">
         <v>24</v>
       </c>
@@ -11993,7 +11993,7 @@
       <c r="L199" s="2"/>
       <c r="M199" s="2"/>
     </row>
-    <row r="200" spans="1:13" customFormat="1" ht="12.5">
+    <row r="200" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A200" s="1" t="s">
         <v>41</v>
       </c>
@@ -12030,7 +12030,7 @@
       <c r="L200" s="2"/>
       <c r="M200" s="2"/>
     </row>
-    <row r="201" spans="1:13" customFormat="1" ht="12.5">
+    <row r="201" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A201" s="1" t="s">
         <v>69</v>
       </c>
@@ -12067,7 +12067,7 @@
       <c r="L201" s="2"/>
       <c r="M201" s="2"/>
     </row>
-    <row r="202" spans="1:13" customFormat="1" ht="12.5">
+    <row r="202" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A202" s="1" t="s">
         <v>69</v>
       </c>
@@ -12104,7 +12104,7 @@
       <c r="L202" s="2"/>
       <c r="M202" s="2"/>
     </row>
-    <row r="203" spans="1:13" customFormat="1" ht="12.5">
+    <row r="203" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A203" s="1" t="s">
         <v>69</v>
       </c>
@@ -12141,7 +12141,7 @@
       <c r="L203" s="2"/>
       <c r="M203" s="2"/>
     </row>
-    <row r="204" spans="1:13" customFormat="1" ht="13">
+    <row r="204" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A204" s="1" t="s">
         <v>35</v>
       </c>
@@ -12178,7 +12178,7 @@
       <c r="L204" s="2"/>
       <c r="M204" s="2"/>
     </row>
-    <row r="205" spans="1:13" customFormat="1" ht="12.5">
+    <row r="205" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A205" s="1" t="s">
         <v>35</v>
       </c>
@@ -12215,7 +12215,7 @@
       <c r="L205" s="2"/>
       <c r="M205" s="2"/>
     </row>
-    <row r="206" spans="1:13" customFormat="1">
+    <row r="206" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A206" s="1" t="s">
         <v>41</v>
       </c>
@@ -12252,7 +12252,7 @@
       <c r="L206" s="2"/>
       <c r="M206" s="2"/>
     </row>
-    <row r="207" spans="1:13" customFormat="1" ht="12.5">
+    <row r="207" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A207" s="1" t="s">
         <v>41</v>
       </c>
@@ -12289,7 +12289,7 @@
       <c r="L207" s="2"/>
       <c r="M207" s="2"/>
     </row>
-    <row r="208" spans="1:13" customFormat="1" ht="12.5">
+    <row r="208" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A208" s="1" t="s">
         <v>69</v>
       </c>
@@ -12326,7 +12326,7 @@
       <c r="L208" s="2"/>
       <c r="M208" s="2"/>
     </row>
-    <row r="209" spans="1:13" customFormat="1" ht="12.5">
+    <row r="209" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A209" s="1" t="s">
         <v>69</v>
       </c>
@@ -12363,7 +12363,7 @@
       <c r="L209" s="2"/>
       <c r="M209" s="2"/>
     </row>
-    <row r="210" spans="1:13" customFormat="1" ht="12.5">
+    <row r="210" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A210" s="1" t="s">
         <v>69</v>
       </c>
@@ -12400,7 +12400,7 @@
       <c r="L210" s="2"/>
       <c r="M210" s="2"/>
     </row>
-    <row r="211" spans="1:13" customFormat="1" ht="13">
+    <row r="211" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A211" s="1" t="s">
         <v>24</v>
       </c>
@@ -12437,7 +12437,7 @@
       <c r="L211" s="2"/>
       <c r="M211" s="2"/>
     </row>
-    <row r="212" spans="1:13" customFormat="1" ht="12.5">
+    <row r="212" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A212" s="1" t="s">
         <v>24</v>
       </c>
@@ -12474,7 +12474,7 @@
       <c r="L212" s="2"/>
       <c r="M212" s="2"/>
     </row>
-    <row r="213" spans="1:13" customFormat="1" ht="37.5">
+    <row r="213" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A213" s="1" t="s">
         <v>41</v>
       </c>
@@ -12511,7 +12511,7 @@
       <c r="L213" s="2"/>
       <c r="M213" s="2"/>
     </row>
-    <row r="214" spans="1:13" customFormat="1" ht="12.5">
+    <row r="214" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A214" s="1" t="s">
         <v>41</v>
       </c>
@@ -12548,7 +12548,7 @@
       <c r="L214" s="2"/>
       <c r="M214" s="2"/>
     </row>
-    <row r="215" spans="1:13" customFormat="1" ht="13">
+    <row r="215" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A215" s="1" t="s">
         <v>24</v>
       </c>
@@ -12585,7 +12585,7 @@
       <c r="L215" s="2"/>
       <c r="M215" s="2"/>
     </row>
-    <row r="216" spans="1:13" customFormat="1" ht="12.5">
+    <row r="216" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A216" s="1" t="s">
         <v>24</v>
       </c>
@@ -12622,7 +12622,7 @@
       <c r="L216" s="2"/>
       <c r="M216" s="2"/>
     </row>
-    <row r="217" spans="1:13" customFormat="1" ht="25">
+    <row r="217" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A217" s="1" t="s">
         <v>51</v>
       </c>
@@ -12659,7 +12659,7 @@
       <c r="L217" s="2"/>
       <c r="M217" s="2"/>
     </row>
-    <row r="218" spans="1:13" customFormat="1" ht="12.5">
+    <row r="218" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A218" s="1" t="s">
         <v>51</v>
       </c>
@@ -12696,7 +12696,7 @@
       <c r="L218" s="2"/>
       <c r="M218" s="2"/>
     </row>
-    <row r="219" spans="1:13" customFormat="1" ht="89">
+    <row r="219" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A219" s="1" t="s">
         <v>61</v>
       </c>
@@ -12733,7 +12733,7 @@
       <c r="L219" s="2"/>
       <c r="M219" s="2"/>
     </row>
-    <row r="220" spans="1:13" customFormat="1" ht="12.5">
+    <row r="220" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A220" s="1" t="s">
         <v>61</v>
       </c>
@@ -12770,7 +12770,7 @@
       <c r="L220" s="2"/>
       <c r="M220" s="2"/>
     </row>
-    <row r="221" spans="1:13" customFormat="1" ht="12.5">
+    <row r="221" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A221" s="1" t="s">
         <v>82</v>
       </c>
@@ -12807,7 +12807,7 @@
       <c r="L221" s="2"/>
       <c r="M221" s="2"/>
     </row>
-    <row r="222" spans="1:13" customFormat="1" ht="12.5">
+    <row r="222" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A222" s="1" t="s">
         <v>82</v>
       </c>
@@ -12844,7 +12844,7 @@
       <c r="L222" s="2"/>
       <c r="M222" s="2"/>
     </row>
-    <row r="223" spans="1:13" customFormat="1" ht="12.5">
+    <row r="223" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A223" s="1" t="s">
         <v>82</v>
       </c>
@@ -12881,7 +12881,7 @@
       <c r="L223" s="2"/>
       <c r="M223" s="2"/>
     </row>
-    <row r="224" spans="1:13" customFormat="1" ht="12.5">
+    <row r="224" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A224" s="1" t="s">
         <v>61</v>
       </c>
@@ -12918,7 +12918,7 @@
       <c r="L224" s="2"/>
       <c r="M224" s="2"/>
     </row>
-    <row r="225" spans="1:13" customFormat="1" ht="13">
+    <row r="225" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A225" s="1" t="s">
         <v>69</v>
       </c>
@@ -12955,7 +12955,7 @@
       <c r="L225" s="2"/>
       <c r="M225" s="2"/>
     </row>
-    <row r="226" spans="1:13" customFormat="1" ht="13">
+    <row r="226" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A226" s="1" t="s">
         <v>69</v>
       </c>
@@ -12992,7 +12992,7 @@
       <c r="L226" s="2"/>
       <c r="M226" s="2"/>
     </row>
-    <row r="227" spans="1:13" customFormat="1" ht="12.5">
+    <row r="227" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A227" s="1" t="s">
         <v>69</v>
       </c>
@@ -13029,7 +13029,7 @@
       <c r="L227" s="2"/>
       <c r="M227" s="2"/>
     </row>
-    <row r="228" spans="1:13" customFormat="1" ht="13">
+    <row r="228" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A228" s="1" t="s">
         <v>24</v>
       </c>
@@ -13066,7 +13066,7 @@
       <c r="L228" s="2"/>
       <c r="M228" s="2"/>
     </row>
-    <row r="229" spans="1:13" customFormat="1" ht="13">
+    <row r="229" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A229" s="1" t="s">
         <v>24</v>
       </c>
@@ -13103,7 +13103,7 @@
       <c r="L229" s="2"/>
       <c r="M229" s="2"/>
     </row>
-    <row r="230" spans="1:13" customFormat="1" ht="13">
+    <row r="230" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A230" s="1" t="s">
         <v>35</v>
       </c>
@@ -13140,7 +13140,7 @@
       <c r="L230" s="2"/>
       <c r="M230" s="2"/>
     </row>
-    <row r="231" spans="1:13" customFormat="1" ht="12.5">
+    <row r="231" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A231" s="1" t="s">
         <v>35</v>
       </c>
@@ -13177,7 +13177,7 @@
       <c r="L231" s="2"/>
       <c r="M231" s="2"/>
     </row>
-    <row r="232" spans="1:13" customFormat="1" ht="38">
+    <row r="232" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A232" s="1" t="s">
         <v>41</v>
       </c>
@@ -13214,7 +13214,7 @@
       <c r="L232" s="2"/>
       <c r="M232" s="2"/>
     </row>
-    <row r="233" spans="1:13" customFormat="1" ht="38">
+    <row r="233" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A233" s="1" t="s">
         <v>41</v>
       </c>
@@ -13251,7 +13251,7 @@
       <c r="L233" s="2"/>
       <c r="M233" s="2"/>
     </row>
-    <row r="234" spans="1:13" customFormat="1" ht="25">
+    <row r="234" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A234" s="1" t="s">
         <v>61</v>
       </c>
@@ -13288,7 +13288,7 @@
       <c r="L234" s="2"/>
       <c r="M234" s="2"/>
     </row>
-    <row r="235" spans="1:13" customFormat="1" ht="25">
+    <row r="235" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A235" s="1" t="s">
         <v>61</v>
       </c>
@@ -13325,7 +13325,7 @@
       <c r="L235" s="2"/>
       <c r="M235" s="2"/>
     </row>
-    <row r="236" spans="1:13" customFormat="1" ht="13">
+    <row r="236" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A236" s="1" t="s">
         <v>69</v>
       </c>
@@ -13362,7 +13362,7 @@
       <c r="L236" s="2"/>
       <c r="M236" s="8"/>
     </row>
-    <row r="237" spans="1:13" customFormat="1" ht="12.5">
+    <row r="237" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A237" s="1" t="s">
         <v>69</v>
       </c>
@@ -13399,7 +13399,7 @@
       <c r="L237" s="2"/>
       <c r="M237" s="2"/>
     </row>
-    <row r="238" spans="1:13" customFormat="1" ht="12.5">
+    <row r="238" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A238" s="1" t="s">
         <v>69</v>
       </c>
@@ -13436,7 +13436,7 @@
       <c r="L238" s="2"/>
       <c r="M238" s="2"/>
     </row>
-    <row r="239" spans="1:13" customFormat="1" ht="12.5">
+    <row r="239" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A239" s="1" t="s">
         <v>82</v>
       </c>
@@ -13473,7 +13473,7 @@
       <c r="L239" s="2"/>
       <c r="M239" s="2"/>
     </row>
-    <row r="240" spans="1:13" customFormat="1" ht="12.5">
+    <row r="240" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A240" s="1" t="s">
         <v>82</v>
       </c>
@@ -13510,7 +13510,7 @@
       <c r="L240" s="2"/>
       <c r="M240" s="2"/>
     </row>
-    <row r="241" spans="1:26" customFormat="1" ht="12.5">
+    <row r="241" spans="1:26" customFormat="1" ht="15" customHeight="1">
       <c r="A241" s="1" t="s">
         <v>82</v>
       </c>
@@ -13547,7 +13547,7 @@
       <c r="L241" s="2"/>
       <c r="M241" s="2"/>
     </row>
-    <row r="242" spans="1:26" customFormat="1" ht="13">
+    <row r="242" spans="1:26" customFormat="1" ht="15" customHeight="1">
       <c r="A242" s="1" t="s">
         <v>41</v>
       </c>
@@ -13584,7 +13584,7 @@
       <c r="L242" s="2"/>
       <c r="M242" s="2"/>
     </row>
-    <row r="243" spans="1:26" customFormat="1" ht="12.5">
+    <row r="243" spans="1:26" customFormat="1" ht="15" customHeight="1">
       <c r="A243" s="1" t="s">
         <v>41</v>
       </c>
@@ -13621,7 +13621,7 @@
       <c r="L243" s="2"/>
       <c r="M243" s="2"/>
     </row>
-    <row r="244" spans="1:26" customFormat="1" ht="13">
+    <row r="244" spans="1:26" customFormat="1" ht="15" customHeight="1">
       <c r="A244" s="7" t="s">
         <v>61</v>
       </c>
@@ -13658,7 +13658,7 @@
       <c r="L244" s="2"/>
       <c r="M244" s="2"/>
     </row>
-    <row r="245" spans="1:26" customFormat="1" ht="12.5">
+    <row r="245" spans="1:26" customFormat="1" ht="15" customHeight="1">
       <c r="A245" s="7" t="s">
         <v>61</v>
       </c>
@@ -13695,7 +13695,7 @@
       <c r="L245" s="2"/>
       <c r="M245" s="2"/>
     </row>
-    <row r="246" spans="1:26" customFormat="1" ht="12.5">
+    <row r="246" spans="1:26" customFormat="1">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -13723,7 +13723,7 @@
       <c r="Y246" s="2"/>
       <c r="Z246" s="2"/>
     </row>
-    <row r="247" spans="1:26" customFormat="1" ht="16">
+    <row r="247" spans="1:26" customFormat="1" ht="15.75">
       <c r="A247" s="10"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -13745,7 +13745,7 @@
       <c r="S247" s="2"/>
       <c r="T247" s="2"/>
     </row>
-    <row r="248" spans="1:26" customFormat="1" ht="16">
+    <row r="248" spans="1:26" customFormat="1" ht="15.75">
       <c r="A248" s="12"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -13772,13 +13772,13 @@
       <c r="X248" s="2"/>
       <c r="Y248" s="2"/>
     </row>
-    <row r="249" spans="1:26" customFormat="1" ht="16" customHeight="1">
-      <c r="A249" s="16" t="s">
+    <row r="249" spans="1:26" customFormat="1" ht="18">
+      <c r="A249" s="17" t="s">
         <v>721</v>
       </c>
-      <c r="B249" s="16"/>
-      <c r="C249" s="16"/>
-      <c r="D249" s="16"/>
+      <c r="B249" s="17"/>
+      <c r="C249" s="17"/>
+      <c r="D249" s="17"/>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
       <c r="G249" s="2"/>
@@ -13801,10 +13801,10 @@
       <c r="X249" s="2"/>
     </row>
     <row r="250" spans="1:26" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A250" s="16" t="s">
+      <c r="A250" s="17" t="s">
         <v>715</v>
       </c>
-      <c r="B250" s="16"/>
+      <c r="B250" s="17"/>
       <c r="C250" s="18" t="s">
         <v>716</v>
       </c>
@@ -13831,10 +13831,10 @@
       <c r="X250" s="2"/>
     </row>
     <row r="251" spans="1:26" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A251" s="16" t="s">
+      <c r="A251" s="17" t="s">
         <v>717</v>
       </c>
-      <c r="B251" s="16"/>
+      <c r="B251" s="17"/>
       <c r="C251" s="18" t="s">
         <v>718</v>
       </c>
@@ -13861,10 +13861,10 @@
       <c r="X251" s="2"/>
     </row>
     <row r="252" spans="1:26" customFormat="1" ht="18">
-      <c r="A252" s="16" t="s">
+      <c r="A252" s="17" t="s">
         <v>719</v>
       </c>
-      <c r="B252" s="16"/>
+      <c r="B252" s="17"/>
       <c r="C252" s="18" t="s">
         <v>720</v>
       </c>
@@ -13890,11 +13890,11 @@
       <c r="W252" s="2"/>
       <c r="X252" s="2"/>
     </row>
-    <row r="253" spans="1:26" customFormat="1" ht="17.5">
-      <c r="A253" s="17"/>
-      <c r="B253" s="17"/>
-      <c r="C253" s="17"/>
-      <c r="D253" s="17"/>
+    <row r="253" spans="1:26" customFormat="1" ht="18">
+      <c r="A253" s="16"/>
+      <c r="B253" s="16"/>
+      <c r="C253" s="16"/>
+      <c r="D253" s="16"/>
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
       <c r="G253" s="2"/>
@@ -13917,7 +13917,7 @@
       <c r="X253" s="2"/>
       <c r="Y253" s="2"/>
     </row>
-    <row r="254" spans="1:26" customFormat="1" ht="12.5">
+    <row r="254" spans="1:26" customFormat="1">
       <c r="A254" s="4"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -13944,18 +13944,15 @@
       <c r="X254" s="2"/>
       <c r="Y254" s="2"/>
     </row>
-    <row r="255" spans="1:26" ht="12.5"/>
-    <row r="256" spans="1:26" ht="12.5"/>
-    <row r="257" ht="12.5"/>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A249:D249"/>
     <mergeCell ref="A250:B250"/>
     <mergeCell ref="A251:B251"/>
     <mergeCell ref="A252:B252"/>
     <mergeCell ref="C250:D250"/>
     <mergeCell ref="C251:D251"/>
     <mergeCell ref="C252:D252"/>
-    <mergeCell ref="A249:D249"/>
   </mergeCells>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="1.1437000000000002" bottom="1.1437000000000002" header="0.75000000000000011" footer="0.75000000000000011"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
